--- a/dataframes.xlsx
+++ b/dataframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sau beo\Desktop\nam 4\ki 1\Методы и средства исслед. ИБ МАС\project\etap3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF4F83-23A9-4B8D-A94A-A8B20C1435F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F3C95-3219-4652-8628-F6D36138AE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>srcIP</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>1.2.3.4</t>
+  </si>
+  <si>
+    <t>resultVolume</t>
+  </si>
+  <si>
+    <t>resultCluster</t>
+  </si>
+  <si>
+    <t>resultLogic</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>resultAverage</t>
   </si>
 </sst>
 </file>
@@ -405,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +468,23 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -494,8 +524,23 @@
       <c r="M2">
         <v>123456</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -534,6 +579,21 @@
       </c>
       <c r="M3">
         <v>123456</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
